--- a/biology/Botanique/Craterium/Craterium.xlsx
+++ b/biology/Botanique/Craterium/Craterium.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Craterium est un genre de Mycétozoaires (anciennement les Myxomycètes) de l’ordre des Physarales. Il se distingue par ses coupes particulièrement persistantes.
 </t>
@@ -511,10 +523,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La fructification est un sporangium pédonculé à peu pédonculé, sphérique, globuleux ou en forme de coupe. Le péridium (couche externe) est constitué d'une ou deux couches cartilagineuses entrelacées, dont la moitié supérieure forme généralement une sorte de couvercle. Il est incrusté de nodules calcaires. La couche interne est constituée d'un capillitium formé de nodules calcaires reliés par des fils translucides. Ces nodules se regroupent généralement en une tige fine (une pseudocolumelle) au centre de la coupe. Les spores formées en masses, varient du rose profond ou pourpre au noir[2].
-La coupe, nommée calyculus, est de par sa persistance un moyen sûr de déterminer le genre Craterium. Les espèces qui ont un couvercle distinct du reste du péridium sont facilement reconnaissables[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La fructification est un sporangium pédonculé à peu pédonculé, sphérique, globuleux ou en forme de coupe. Le péridium (couche externe) est constitué d'une ou deux couches cartilagineuses entrelacées, dont la moitié supérieure forme généralement une sorte de couvercle. Il est incrusté de nodules calcaires. La couche interne est constituée d'un capillitium formé de nodules calcaires reliés par des fils translucides. Ces nodules se regroupent généralement en une tige fine (une pseudocolumelle) au centre de la coupe. Les spores formées en masses, varient du rose profond ou pourpre au noir.
+La coupe, nommée calyculus, est de par sa persistance un moyen sûr de déterminer le genre Craterium. Les espèces qui ont un couvercle distinct du reste du péridium sont facilement reconnaissables.
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le genre Craterium est cosmopolite, sept espèces étant présentes en France métropolitaine. L'espèce la plus commune est Craterium leucocephalum. Avec ses sporangium violet vif, Craterium paraguayense, est principalement tropical à subtropical[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le genre Craterium est cosmopolite, sept espèces étant présentes en France métropolitaine. L'espèce la plus commune est Craterium leucocephalum. Avec ses sporangium violet vif, Craterium paraguayense, est principalement tropical à subtropical.
 </t>
         </is>
       </c>
@@ -574,9 +590,11 @@
           <t>Ensemble des espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Sont regroupées ici l'ensemble des espèces reconnues selon Index Fungorum[3]. Les espèces notées par un « F » sont présentes en France métropolitaine selon l'INPN.
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sont regroupées ici l'ensemble des espèces reconnues selon Index Fungorum. Les espèces notées par un « F » sont présentes en France métropolitaine selon l'INPN.
 Craterium aureomagnum
 Craterium aureonucleatum (F)
 Craterium aureum (F)
